--- a/src/proyectoIntegradorJava/Archivos/Resultado.xlsx
+++ b/src/proyectoIntegradorJava/Archivos/Resultado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB4695D-A26B-4BD9-AAAB-C86681143F75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD3DDC2-602E-43AA-993A-E5F31EB94BD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Argentina</t>
   </si>
@@ -32,15 +32,37 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>Ronda</t>
+  </si>
+  <si>
+    <t>Equipo1</t>
+  </si>
+  <si>
+    <t>Cant Goles 1</t>
+  </si>
+  <si>
+    <t>Cant Goles 2</t>
+  </si>
+  <si>
+    <t>Equipo 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,12 +85,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,43 +391,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>